--- a/Scrum Meeting Log.xlsx
+++ b/Scrum Meeting Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byu77\Documents\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{506BAFBE-EB5F-432D-BBB1-4EC7ECC75AE4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E1BD7A-EF2E-4EA5-851F-4D1B083CBBF0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9398" xr2:uid="{4F85B5DE-145D-407F-AE0B-3658DEF44FEC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
   <si>
     <t>Day</t>
   </si>
@@ -442,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64DA117A-A919-47F8-9C06-21B6E1A75659}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -600,23 +600,51 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="1">
+        <v>43443</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Scrum Meeting Log.xlsx
+++ b/Scrum Meeting Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byu77\Documents\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E1BD7A-EF2E-4EA5-851F-4D1B083CBBF0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6C5432-177C-465B-B46B-94B5734D102C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9398" xr2:uid="{4F85B5DE-145D-407F-AE0B-3658DEF44FEC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
     <t>Day</t>
   </si>
@@ -83,6 +83,9 @@
   <si>
     <t>Explore Ajax</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ben Change</t>
   </si>
 </sst>
 </file>
@@ -442,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64DA117A-A919-47F8-9C06-21B6E1A75659}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:B45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -454,20 +457,23 @@
     <col min="2" max="2" width="46.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="B2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -475,32 +481,32 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:5">
       <c r="B5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:5">
       <c r="B6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:5">
       <c r="B7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:5">
       <c r="B8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:5">
       <c r="B9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -508,7 +514,7 @@
         <v>43442</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -516,7 +522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -524,7 +530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>4</v>
       </c>

--- a/Scrum Meeting Log.xlsx
+++ b/Scrum Meeting Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byu77\Documents\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E1BD7A-EF2E-4EA5-851F-4D1B083CBBF0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159C9A2C-6E43-4534-A97A-8379485DBEE6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9398" xr2:uid="{4F85B5DE-145D-407F-AE0B-3658DEF44FEC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
     <t>Day</t>
   </si>
@@ -83,6 +83,9 @@
   <si>
     <t>Explore Ajax</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mary Change</t>
   </si>
 </sst>
 </file>
@@ -442,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64DA117A-A919-47F8-9C06-21B6E1A75659}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:B45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -454,7 +457,7 @@
     <col min="2" max="2" width="46.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -462,45 +465,48 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="B2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="B5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4">
       <c r="B6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:4">
       <c r="B7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4">
       <c r="B8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:4">
       <c r="B9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -508,7 +514,7 @@
         <v>43442</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -516,7 +522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -524,7 +530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>4</v>
       </c>

--- a/Scrum Meeting Log.xlsx
+++ b/Scrum Meeting Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byu77\Documents\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159C9A2C-6E43-4534-A97A-8379485DBEE6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A5B3DC-2617-449E-82B8-F6E82AF1F067}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9398" xr2:uid="{4F85B5DE-145D-407F-AE0B-3658DEF44FEC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>Day</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Mary Change</t>
+  </si>
+  <si>
+    <t>Ben Change</t>
   </si>
 </sst>
 </file>
@@ -448,7 +451,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -464,6 +467,9 @@
       <c r="B1" t="s">
         <v>10</v>
       </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
       <c r="B2" t="s">

--- a/Scrum Meeting Log.xlsx
+++ b/Scrum Meeting Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byu77\Documents\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6C5432-177C-465B-B46B-94B5734D102C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E071BAC8-9DBB-489F-A95A-10BE02B8A920}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9398" xr2:uid="{4F85B5DE-145D-407F-AE0B-3658DEF44FEC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>Day</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Ben Change</t>
+  </si>
+  <si>
+    <t>Ben Change 2</t>
   </si>
 </sst>
 </file>
@@ -445,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64DA117A-A919-47F8-9C06-21B6E1A75659}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -457,7 +460,7 @@
     <col min="2" max="2" width="46.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -467,13 +470,16 @@
       <c r="E1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="B2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -481,32 +487,32 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="B5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:7">
       <c r="B6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:7">
       <c r="B7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:7">
       <c r="B8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:7">
       <c r="B9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -514,7 +520,7 @@
         <v>43442</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -522,7 +528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -530,7 +536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>4</v>
       </c>

--- a/Scrum Meeting Log.xlsx
+++ b/Scrum Meeting Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byu77\Documents\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98A406FE-10B5-4278-8951-ED74C4CE9EFD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AE3DD3-FBB9-4500-A937-A1F0D91BFBC9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9398" xr2:uid="{4F85B5DE-145D-407F-AE0B-3658DEF44FEC}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
   <si>
     <t>Day</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Not having enough time to complete tasks</t>
+  </si>
+  <si>
+    <t>Ben 2</t>
   </si>
 </sst>
 </file>
@@ -410,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64DA117A-A919-47F8-9C06-21B6E1A75659}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:A26"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -421,15 +424,18 @@
     <col min="1" max="1" width="28.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
         <v>43440</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -437,7 +443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -445,7 +451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -453,7 +459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -461,42 +467,42 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>5</v>
       </c>

--- a/Scrum Meeting Log.xlsx
+++ b/Scrum Meeting Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byu77\Documents\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159C9A2C-6E43-4534-A97A-8379485DBEE6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD94885-7FF4-4B12-9E0A-30434FEEA50C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9398" xr2:uid="{4F85B5DE-145D-407F-AE0B-3658DEF44FEC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>Day</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Mary Change</t>
+  </si>
+  <si>
+    <t>Mary Change2</t>
   </si>
 </sst>
 </file>
@@ -445,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64DA117A-A919-47F8-9C06-21B6E1A75659}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -457,7 +460,7 @@
     <col min="2" max="2" width="46.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -465,12 +468,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:7">
       <c r="B2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -480,33 +483,36 @@
       <c r="D4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="B5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:7">
       <c r="B6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:7">
       <c r="B7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:7">
       <c r="B8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:7">
       <c r="B9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -514,7 +520,7 @@
         <v>43442</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -522,7 +528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -530,7 +536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>4</v>
       </c>

--- a/Scrum Meeting Log.xlsx
+++ b/Scrum Meeting Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byu77\Documents\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD94885-7FF4-4B12-9E0A-30434FEEA50C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D24B24-1089-4917-9406-872E6D17114B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9398" xr2:uid="{4F85B5DE-145D-407F-AE0B-3658DEF44FEC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
   <si>
     <t>Day</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Mary Change2</t>
+  </si>
+  <si>
+    <t>Mary Change 3</t>
   </si>
 </sst>
 </file>
@@ -448,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64DA117A-A919-47F8-9C06-21B6E1A75659}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -460,7 +463,7 @@
     <col min="2" max="2" width="46.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -468,12 +471,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -486,33 +489,36 @@
       <c r="G4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="B5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:10">
       <c r="B6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:10">
       <c r="B7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:10">
       <c r="B8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:10">
       <c r="B9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -520,7 +526,7 @@
         <v>43442</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -528,7 +534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -536,7 +542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>4</v>
       </c>

--- a/Scrum Meeting Log.xlsx
+++ b/Scrum Meeting Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byu77\Documents\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D24B24-1089-4917-9406-872E6D17114B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C781B964-329F-4C34-809E-59A163F46946}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9398" xr2:uid="{4F85B5DE-145D-407F-AE0B-3658DEF44FEC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
   <si>
     <t>Day</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Mary Change 3</t>
+  </si>
+  <si>
+    <t>Mary Change 4</t>
   </si>
 </sst>
 </file>
@@ -451,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64DA117A-A919-47F8-9C06-21B6E1A75659}">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -463,7 +466,7 @@
     <col min="2" max="2" width="46.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -471,12 +474,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12">
       <c r="B2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -492,33 +495,36 @@
       <c r="J4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="B5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:12">
       <c r="B6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:12">
       <c r="B7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:12">
       <c r="B8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:12">
       <c r="B9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -526,7 +532,7 @@
         <v>43442</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -534,7 +540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -542,7 +548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>4</v>
       </c>

--- a/Scrum Meeting Log.xlsx
+++ b/Scrum Meeting Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byu77\Documents\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E071BAC8-9DBB-489F-A95A-10BE02B8A920}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6153218E-653C-44B5-9AA4-C4AEA4BED229}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9398" xr2:uid="{4F85B5DE-145D-407F-AE0B-3658DEF44FEC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
   <si>
     <t>Day</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Ben Change 2</t>
+  </si>
+  <si>
+    <t>Ben Change 3</t>
   </si>
 </sst>
 </file>
@@ -448,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64DA117A-A919-47F8-9C06-21B6E1A75659}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -460,7 +463,7 @@
     <col min="2" max="2" width="46.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -473,13 +476,16 @@
       <c r="G1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="B2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -487,32 +493,32 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="B5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:9">
       <c r="B7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:9">
       <c r="B8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:9">
       <c r="B9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -520,7 +526,7 @@
         <v>43442</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -528,7 +534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -536,7 +542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>4</v>
       </c>

--- a/Scrum Meeting Log.xlsx
+++ b/Scrum Meeting Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byu77\Documents\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6153218E-653C-44B5-9AA4-C4AEA4BED229}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A200FD40-E3B1-4536-B875-E00D4F7EBB87}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9398" xr2:uid="{4F85B5DE-145D-407F-AE0B-3658DEF44FEC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
   <si>
     <t>Day</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Ben Change 3</t>
+  </si>
+  <si>
+    <t>Ben Change 4</t>
   </si>
 </sst>
 </file>
@@ -451,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64DA117A-A919-47F8-9C06-21B6E1A75659}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -463,7 +466,7 @@
     <col min="2" max="2" width="46.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -479,13 +482,16 @@
       <c r="I1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="B2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -493,32 +499,32 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="B5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:11">
       <c r="B6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:11">
       <c r="B7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:11">
       <c r="B8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:11">
       <c r="B9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -526,7 +532,7 @@
         <v>43442</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -534,7 +540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -542,7 +548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>4</v>
       </c>

--- a/Scrum Meeting Log.xlsx
+++ b/Scrum Meeting Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byu77\Documents\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C781B964-329F-4C34-809E-59A163F46946}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC8E69C-8354-44D2-8173-4C8059D72D3D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9398" xr2:uid="{4F85B5DE-145D-407F-AE0B-3658DEF44FEC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
   <si>
     <t>Day</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>Mary Change 4</t>
+  </si>
+  <si>
+    <t>MC 5</t>
   </si>
 </sst>
 </file>
@@ -457,7 +460,7 @@
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -508,6 +511,9 @@
       <c r="B6" t="s">
         <v>15</v>
       </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:12">
       <c r="B7" t="s">

--- a/Scrum Meeting Log.xlsx
+++ b/Scrum Meeting Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byu77\Documents\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC8E69C-8354-44D2-8173-4C8059D72D3D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209A81F8-A918-41A7-B0EB-DEC9694BE61B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9398" xr2:uid="{4F85B5DE-145D-407F-AE0B-3658DEF44FEC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
   <si>
     <t>Day</t>
   </si>
@@ -460,7 +460,7 @@
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -524,6 +524,9 @@
       <c r="B8" t="s">
         <v>17</v>
       </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:12">
       <c r="B9" t="s">

--- a/Scrum Meeting Log.xlsx
+++ b/Scrum Meeting Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byu77\Documents\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209A81F8-A918-41A7-B0EB-DEC9694BE61B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9151FE6-1F07-489B-9FD6-0AB698DB2B93}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9398" xr2:uid="{4F85B5DE-145D-407F-AE0B-3658DEF44FEC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
   <si>
     <t>Day</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>MC 5</t>
+  </si>
+  <si>
+    <t>Ben2</t>
   </si>
 </sst>
 </file>
@@ -460,7 +463,7 @@
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -527,6 +530,9 @@
       <c r="D8" t="s">
         <v>2</v>
       </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:12">
       <c r="B9" t="s">

--- a/Scrum Meeting Log.xlsx
+++ b/Scrum Meeting Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byu77\Documents\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9151FE6-1F07-489B-9FD6-0AB698DB2B93}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A679F45-85EC-49E2-B054-C6D0ECD9C0C2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9398" xr2:uid="{4F85B5DE-145D-407F-AE0B-3658DEF44FEC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
   <si>
     <t>Day</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>Ben2</t>
+  </si>
+  <si>
+    <t>Ben3</t>
   </si>
 </sst>
 </file>
@@ -463,7 +466,7 @@
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -533,6 +536,9 @@
       <c r="G8" t="s">
         <v>24</v>
       </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:12">
       <c r="B9" t="s">

--- a/Scrum Meeting Log.xlsx
+++ b/Scrum Meeting Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\byu77\Documents\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209A81F8-A918-41A7-B0EB-DEC9694BE61B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D48B8F-6529-4BD6-90CA-7723AD029A3B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="9398" xr2:uid="{4F85B5DE-145D-407F-AE0B-3658DEF44FEC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
   <si>
     <t>Day</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>MC 5</t>
+  </si>
+  <si>
+    <t>Dick</t>
   </si>
 </sst>
 </file>
@@ -460,7 +463,7 @@
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -533,6 +536,11 @@
         <v>18</v>
       </c>
     </row>
+    <row r="11" spans="1:12">
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>0</v>
